--- a/Datasets/Frommann/Data/Frommann_1_B_Bolduan.xlsx
+++ b/Datasets/Frommann/Data/Frommann_1_B_Bolduan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6a52368c9c89b70/Desktop/Frommann/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/Akademie_Projekt/Datasets/Frommann/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_C78D76F0D2D486D4A6A7FEF8A1AF270309B67BD7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D146E6B-0E70-5743-B778-5821ABFB9C7C}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_C78D76F0D2D486D4A6A7FEF8A1AF270309B67BD7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05D642C7-F1AF-46D3-8193-B449F9DE17BA}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="20960" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -576,24 +576,24 @@
   <dimension ref="A1:O265"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.875" customWidth="1"/>
+    <col min="4" max="4" width="47.375" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="6" max="7" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" style="1" customWidth="1"/>
     <col min="15" max="15" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -733,7 +733,7 @@
       <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="12" t="s">
         <v>28</v>
       </c>
       <c r="G4">
@@ -795,7 +795,7 @@
       <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -845,18 +845,18 @@
       <c r="N6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="17">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D7" t="s">
@@ -983,9 +983,9 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="11"/>
+    <col min="1" max="16384" width="10.875" style="11"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1002,10 +1002,10 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
